--- a/YuziApi/yuziapi/template/报价模板.xlsx
+++ b/YuziApi/yuziapi/template/报价模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zhaoyu\zhiyunwuliu\记录表\模板文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zhaoyu\zhaoyuCode\YuZiApi\YuziApi\yuziapi\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98330B8D-EDF7-4893-9D7F-CDFB9BAAE84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1F3EBB-6531-4B0F-88CD-C1CAEDD4BA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-60" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>智云物流（天津）有限公司</t>
   </si>
@@ -32,43 +32,16 @@
     <t>客户代码</t>
   </si>
   <si>
-    <t>时效</t>
-  </si>
-  <si>
     <t>品名</t>
   </si>
   <si>
     <t>目的地</t>
   </si>
   <si>
-    <t>件数</t>
-  </si>
-  <si>
     <t>重量kg</t>
   </si>
   <si>
     <t>体积m³</t>
-  </si>
-  <si>
-    <t>密度</t>
-  </si>
-  <si>
-    <t>运费单价</t>
-  </si>
-  <si>
-    <t>打包费</t>
-  </si>
-  <si>
-    <t>货值</t>
-  </si>
-  <si>
-    <t>保险费</t>
-  </si>
-  <si>
-    <t>提货费</t>
-  </si>
-  <si>
-    <t>总金额——WTaTO</t>
   </si>
   <si>
     <r>
@@ -81,10 +54,6 @@
     </r>
   </si>
   <si>
-    <t>日期:2024-09-24</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>运单号</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -93,7 +62,56 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>上架费（入仓、清点）</t>
+    <t>*由于关税和汇率成本的周期性波动，该计算是可预测的。最终运费将根据实际货物数据进行包装和计算后计算。
+发送前请再次确认您的信息!</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>上架费（入仓、清点）￥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>上架费(￥/kg）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>提货费￥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险费￥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>货值$</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>密度</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>件数(箱)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费单价￥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包费￥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>木架木托费用￥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>木箱费￥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额——WTaTO ￥</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -102,28 +120,11 @@
 20-30美金/公斤，保费按2%收取；
 30-50美金/公斤，保费按3%收取；
 超过50美金/公斤（联系客服人员）
-如果货物没有投保，万一发生货物丢失梅关没收的情况，每公斤只需赔付3美元。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>运费总价</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                  </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>木箱费</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>木架木托费用</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>*由于关税和汇率成本的周期性波动，该计算是可预测的。最终运费将根据实际货物数据进行包装和计算后计算。
-发送前请再次确认您的信息!</t>
+如果货物没有投保，万一发生货物丢失海关没收的情况，每公斤只需赔付3美元。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>时效 （天）</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +139,7 @@
     <numFmt numFmtId="179" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -155,17 +156,20 @@
       <b/>
       <sz val="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -179,12 +183,13 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="204"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -192,6 +197,7 @@
       <sz val="8"/>
       <color rgb="FF472800"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -220,13 +226,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -492,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -514,7 +513,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -532,36 +555,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -589,6 +600,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -597,33 +617,6 @@
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -915,212 +908,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.65" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="24.9" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="39" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="A10" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="A11" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
+      <c r="A15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>25</v>
+      <c r="A20" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>24</v>
+      <c r="A21" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="43"/>
+      <c r="A22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="14"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A23" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" ht="58.5" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="A24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" ht="11.85" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="9"/>
+      <c r="A25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="17"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="22" t="s">
-        <v>17</v>
-      </c>
+      <c r="D25" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A1:D1"/>
